--- a/Planning/schedule.xlsx
+++ b/Planning/schedule.xlsx
@@ -1,36 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE06C1-CCFB-433B-B070-1C6E6D3D4989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242699C7-9469-4E3F-AAD6-278377BE1C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t># Days</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,16 +74,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +105,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,12 +419,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B2" s="1">
+        <f>A2+C2</f>
+        <v>45452</v>
+      </c>
+      <c r="C2" s="2">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <f>B2</f>
+        <v>45452</v>
+      </c>
+      <c r="B3" s="1">
+        <f>A3+C3</f>
+        <v>45462</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f>B3</f>
+        <v>45462</v>
+      </c>
+      <c r="B4" s="1">
+        <f>A4+C4</f>
+        <v>45482</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f>B4</f>
+        <v>45482</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45505</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5-A5</f>
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>